--- a/Documentation/Tables.xlsx
+++ b/Documentation/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabe\Desktop\CSET2022-Project1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A96DC41E-F4BD-4F69-B6F3-D9FF78966D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE853FF-F13C-4B86-A8CC-51B7C116D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1ACC9A72-EEB2-4DED-84D5-0999DB888BE0}"/>
+    <workbookView xWindow="-108" yWindow="-84" windowWidth="17280" windowHeight="9060" xr2:uid="{1ACC9A72-EEB2-4DED-84D5-0999DB888BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>empID</t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,6 +560,9 @@
       </c>
       <c r="H1" t="s">
         <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
